--- a/Client/Assets/Editor/Excels/LevelInfo.xlsx
+++ b/Client/Assets/Editor/Excels/LevelInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D89195A-27E6-48A1-BD17-59666EF664B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2742FE0B-B99A-4D8B-854F-ED3FE601E6CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{7D8F7769-C94C-4505-A5D8-9F0FA7AEB9EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,29 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arts/Card/Type/type0.png;Arts/Card/Type/type1.png;Arts/Card/Type/type2.png</t>
-  </si>
-  <si>
-    <t>Arts/Card/Type/type0.png;Arts/Card/Type/type1.png;Arts/Card/Type/type2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arts/Card/SlotType/type0.png;Arts/Card/SlotType/type1.png;Arts/Card/SlotType/type3.png</t>
-  </si>
-  <si>
-    <t>Arts/Card/SlotType/type0.png;Arts/Card/SlotType/type1.png;Arts/Card/SlotType/type4.png</t>
-  </si>
-  <si>
-    <t>Arts/Card/Texs/type3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arts/Card/Texs/type4.png</t>
-  </si>
-  <si>
-    <t>Arts/Card/Texs/type5.png</t>
-  </si>
-  <si>
     <t>Arts/ImagesNew/CardAttri_time_back;Arts/ImagesNew/CardAttri_dialo_back;Arts/ImagesNew/CardAttri_action_back</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>左边卡片位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +148,82 @@
   </si>
   <si>
     <t>左边卡片ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107;108;109;110;111;112;113;114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115;116;117;118;119;120;121;122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123;124;125;126;127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128;129;130;131;132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133;134;135;136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137;138;139;140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141;142;143;144;145;146;147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>148;149;150;151;152;153;154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155;156;157;158;159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160;161;162;163;164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,12 +262,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -227,24 +291,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,82 +630,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357AD680-1315-4DDA-9D8D-14E8836A84DC}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="8.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
     <col min="10" max="10" width="21.75" customWidth="1"/>
     <col min="11" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="16.75" customWidth="1"/>
     <col min="13" max="13" width="19.25" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.25" customWidth="1"/>
-    <col min="17" max="17" width="11.375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -643,201 +712,360 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>101</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>101</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>102</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>18</v>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>102</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>101</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>102</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
+      <c r="Q4" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>103</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>101</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>102</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>104</v>
+      </c>
+      <c r="B6" s="6">
+        <v>103</v>
+      </c>
+      <c r="C6" s="6">
+        <v>102</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Q6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>105</v>
+      </c>
+      <c r="B7" s="6">
+        <v>103</v>
+      </c>
+      <c r="C7" s="6">
+        <v>102</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
+      <c r="Q7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>106</v>
+      </c>
+      <c r="B8" s="6">
+        <v>103</v>
+      </c>
+      <c r="C8" s="6">
+        <v>102</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0</v>
+      <c r="Q8" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Editor/Excels/LevelInfo.xlsx
+++ b/Client/Assets/Editor/Excels/LevelInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2742FE0B-B99A-4D8B-854F-ED3FE601E6CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4972E0EE-D5F3-4BCD-A705-A23A8B9A8EB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{7D8F7769-C94C-4505-A5D8-9F0FA7AEB9EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="55">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,26 @@
   </si>
   <si>
     <t>2;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左角色头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右角色头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dp_unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dp_zhangzj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dp_chengmm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,31 +650,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357AD680-1315-4DDA-9D8D-14E8836A84DC}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="21.75" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="19.25" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.25" customWidth="1"/>
-    <col min="17" max="17" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="21.75" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+    <col min="15" max="15" width="19.25" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="19" max="19" width="11.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,78 +686,80 @@
         <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>14</v>
@@ -741,335 +767,378 @@
       <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>101</v>
       </c>
       <c r="B3" s="6">
         <v>101</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6">
         <v>102</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="H3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>102</v>
       </c>
       <c r="B4" s="6">
         <v>101</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="6">
         <v>102</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="6">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>103</v>
       </c>
       <c r="B5" s="6">
         <v>101</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="6">
         <v>102</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>104</v>
       </c>
       <c r="B6" s="6">
         <v>103</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6">
         <v>102</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="S6" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>105</v>
       </c>
       <c r="B7" s="6">
         <v>103</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6">
         <v>102</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="S7" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>106</v>
       </c>
       <c r="B8" s="6">
         <v>103</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="6">
         <v>102</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="S8" s="6" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Editor/Excels/LevelInfo.xlsx
+++ b/Client/Assets/Editor/Excels/LevelInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4972E0EE-D5F3-4BCD-A705-A23A8B9A8EB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F235E7-12FB-45AF-A79B-1725A6165A06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{7D8F7769-C94C-4505-A5D8-9F0FA7AEB9EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>Arts/ImagesNew/dp_chengmm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dp_yuanyc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,9 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357AD680-1315-4DDA-9D8D-14E8836A84DC}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -967,7 +969,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6">
         <v>102</v>
@@ -1026,7 +1028,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" s="6">
         <v>102</v>
@@ -1085,7 +1087,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6">
         <v>102</v>

--- a/Client/Assets/Editor/Excels/LevelInfo.xlsx
+++ b/Client/Assets/Editor/Excels/LevelInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F235E7-12FB-45AF-A79B-1725A6165A06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A27BB-F716-412B-A3AA-DA80B5EDAE6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{7D8F7769-C94C-4505-A5D8-9F0FA7AEB9EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,13 +249,115 @@
   <si>
     <t>Arts/ImagesNew/dp_yuanyc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投稿人：隔壁班的某人-第1阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投稿人：隔壁班的某人-第2阶段</t>
+  </si>
+  <si>
+    <t>投稿人：隔壁班的某人-第3阶段</t>
+  </si>
+  <si>
+    <t>投稿人：敏哥的小弟-第1阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投稿人：敏哥的小弟-第2阶段</t>
+  </si>
+  <si>
+    <t>投稿人：敏哥的小弟-第3阶段</t>
+  </si>
+  <si>
+    <t>左角色名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张智君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁奕宸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右角色名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程敏敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左角色对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右角色对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此列字体颜色的RGB为：250,250,244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在每一关上方的本子UI上，字体颜色的RGB为：55,88,88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_101L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_102L</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_103L</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_104L</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_105L</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_106L</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_101R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_102R</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_103R</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_104R</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_105R</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_106R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +373,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +400,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +463,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,9 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357AD680-1315-4DDA-9D8D-14E8836A84DC}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -678,9 +813,13 @@
     <col min="17" max="17" width="10.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.25" customWidth="1"/>
     <col min="19" max="19" width="11.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="11.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,8 +877,23 @@
       <c r="S1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -783,8 +937,19 @@
       <c r="S2" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="T2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -842,8 +1007,23 @@
       <c r="S3" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="T3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>102</v>
       </c>
@@ -901,8 +1081,23 @@
       <c r="S4" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="T4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -960,8 +1155,23 @@
       <c r="S5" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="T5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>104</v>
       </c>
@@ -1019,8 +1229,23 @@
       <c r="S6" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="T6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>105</v>
       </c>
@@ -1078,8 +1303,23 @@
       <c r="S7" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="T7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>106</v>
       </c>
@@ -1136,6 +1376,21 @@
       </c>
       <c r="S8" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Editor/Excels/LevelInfo.xlsx
+++ b/Client/Assets/Editor/Excels/LevelInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A27BB-F716-412B-A3AA-DA80B5EDAE6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCBE9AE-65A9-4DCA-8595-322F6DB83261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{7D8F7769-C94C-4505-A5D8-9F0FA7AEB9EC}"/>
   </bookViews>
@@ -789,17 +789,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357AD680-1315-4DDA-9D8D-14E8836A84DC}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="1" customWidth="1"/>

--- a/Client/Assets/Editor/Excels/LevelInfo.xlsx
+++ b/Client/Assets/Editor/Excels/LevelInfo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[Work]\Forgetful_Cupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCBE9AE-65A9-4DCA-8595-322F6DB83261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{7D8F7769-C94C-4505-A5D8-9F0FA7AEB9EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -786,10 +785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357AD680-1315-4DDA-9D8D-14E8836A84DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
